--- a/excel/lab_data.xlsx
+++ b/excel/lab_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suzukikenichi/pro-main/lab-lottery/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9F2C3B8D-002D-CB4C-ABAE-4ADE05AF1F3F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7450C2C0-9FBA-3144-9270-94FAC3F233D2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{5D6408A1-DF46-8548-8F75-512F23995FCC}"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="28800" windowHeight="16520" xr2:uid="{5D6408A1-DF46-8548-8F75-512F23995FCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>有機反応化学</t>
-    <rPh sb="0" eb="2">
-      <t>ユウk</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -182,23 +175,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>薬用植物園</t>
-    <rPh sb="0" eb="2">
-      <t>ヤクヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>育薬学</t>
     <rPh sb="0" eb="2">
       <t>イクヤk</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医薬政策学</t>
-    <rPh sb="0" eb="2">
-      <t>イヤk</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -298,23 +277,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>植物園</t>
-    <rPh sb="0" eb="1">
-      <t>ショk</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>育薬</t>
     <rPh sb="0" eb="2">
       <t>イクヤk</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>政策</t>
-    <rPh sb="0" eb="2">
-      <t>セイサk</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -326,13 +291,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>有機反応</t>
-    <rPh sb="0" eb="2">
-      <t>ユウk</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>有機合成</t>
     <rPh sb="0" eb="2">
       <t>ユウk</t>
@@ -388,6 +346,20 @@
   </si>
   <si>
     <t>both</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天然物合成化学</t>
+    <rPh sb="0" eb="141">
+      <t>ユウk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天合</t>
+    <rPh sb="0" eb="41">
+      <t>ユウk</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -752,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD480F5-ED8D-A540-B25D-CBF49D8903B2}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -767,25 +739,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -793,10 +765,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -816,10 +788,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -839,10 +811,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -862,10 +834,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -885,10 +857,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -908,10 +880,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -931,10 +903,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -954,10 +926,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -977,10 +949,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1000,10 +972,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1023,10 +995,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1046,10 +1018,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1069,10 +1041,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1092,10 +1064,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1115,10 +1087,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1138,10 +1110,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1161,10 +1133,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1184,10 +1156,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1207,10 +1179,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1230,10 +1202,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1253,10 +1225,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1276,67 +1248,21 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
         <v>1</v>
       </c>
     </row>
